--- a/docs/odh/shr-core-Appointment.xlsx
+++ b/docs/odh/shr-core-Appointment.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$38</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="283">
   <si>
     <t>Path</t>
   </si>
@@ -206,26 +206,111 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Appointment.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t>Appointment.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Appointment.meta.extension</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
+This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Appointment.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Appointment.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Appointment.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Appointment.extension</t>
   </si>
   <si>
     <t>extensions
@@ -239,7 +324,7 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -249,206 +334,7 @@
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Appointment.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Appointment.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Appointment.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Appointment.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Appointment.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Appointment.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Appointment.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Appointment.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Appointment.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Appointment.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -543,6 +429,9 @@
   </si>
   <si>
     <t>A broad categorisation of the service that is to be performed during this appointment.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/service-category</t>
@@ -669,6 +558,10 @@
     <t>Appointment.description</t>
   </si>
   <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
     <t>Shown on a subject line in a meeting request, or appointment list</t>
   </si>
   <si>
@@ -704,6 +597,10 @@
   </si>
   <si>
     <t>Appointment.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
   </si>
   <si>
     <t>When appointment is to take place</t>
@@ -855,7 +752,25 @@
     <t>Appointment.participant.id</t>
   </si>
   <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Appointment.participant.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Appointment.participant.modifierExtension</t>
@@ -1137,7 +1052,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN45"/>
+  <dimension ref="A1:AN38"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1169,11 +1084,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="49.39453125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="51.2890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1650,10 +1565,10 @@
         <v>40</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>63</v>
@@ -1664,7 +1579,9 @@
       <c r="L5" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>66</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>40</v>
@@ -1713,7 +1630,7 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
@@ -1728,7 +1645,7 @@
         <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>40</v>
@@ -1746,14 +1663,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
@@ -1765,16 +1682,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1800,37 +1717,37 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AE6" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>40</v>
@@ -1839,7 +1756,7 @@
         <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>40</v>
@@ -1853,11 +1770,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1873,19 +1790,19 @@
         <v>40</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1934,19 +1851,23 @@
       <c r="AD7" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>40</v>
@@ -1960,18 +1881,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>40</v>
@@ -1980,19 +1901,19 @@
         <v>40</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2041,11 +1962,15 @@
       <c r="AD8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG8" s="2"/>
+      <c r="AG8" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH8" t="s" s="2">
         <v>40</v>
       </c>
@@ -2053,7 +1978,7 @@
         <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>40</v>
@@ -2067,11 +1992,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2087,19 +2012,19 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2137,22 +2062,24 @@
         <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE9" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>40</v>
       </c>
@@ -2160,7 +2087,7 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>40</v>
@@ -2174,9 +2101,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2194,20 +2123,16 @@
         <v>40</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -2232,13 +2157,13 @@
         <v>40</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>40</v>
@@ -2255,11 +2180,15 @@
       <c r="AD10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2281,11 +2210,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2298,22 +2227,22 @@
         <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2339,13 +2268,13 @@
         <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>40</v>
@@ -2362,11 +2291,15 @@
       <c r="AD11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>40</v>
       </c>
@@ -2374,7 +2307,7 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>40</v>
@@ -2388,7 +2321,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2399,29 +2332,27 @@
         <v>41</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>40</v>
@@ -2469,15 +2400,11 @@
       <c r="AD12" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE12" t="s" s="2">
-        <v>111</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG12" s="2"/>
       <c r="AH12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2485,21 +2412,21 @@
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>40</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2507,7 +2434,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>50</v>
@@ -2516,22 +2443,22 @@
         <v>40</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2557,13 +2484,13 @@
         <v>40</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>40</v>
@@ -2580,15 +2507,11 @@
       <c r="AD13" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE13" t="s" s="2">
-        <v>119</v>
-      </c>
+      <c r="AE13" s="2"/>
       <c r="AF13" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG13" s="2"/>
       <c r="AH13" t="s" s="2">
         <v>40</v>
       </c>
@@ -2596,25 +2519,25 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2630,20 +2553,18 @@
         <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -2668,13 +2589,11 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>40</v>
@@ -2691,23 +2610,19 @@
       <c r="AD14" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE14" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="AE14" s="2"/>
       <c r="AF14" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG14" s="2"/>
       <c r="AH14" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>40</v>
@@ -2721,11 +2636,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2741,20 +2656,18 @@
         <v>40</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -2779,13 +2692,11 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>40</v>
@@ -2802,15 +2713,11 @@
       <c r="AD15" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE15" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="AE15" s="2"/>
       <c r="AF15" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG15" s="2"/>
       <c r="AH15" t="s" s="2">
         <v>40</v>
       </c>
@@ -2818,7 +2725,7 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>40</v>
@@ -2832,11 +2739,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2852,20 +2759,18 @@
         <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -2890,36 +2795,32 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AE16" s="2"/>
       <c r="AF16" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG16" s="2"/>
       <c r="AH16" t="s" s="2">
         <v>40</v>
       </c>
@@ -2927,13 +2828,13 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -2941,11 +2842,9 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>40</v>
       </c>
@@ -2954,7 +2853,7 @@
         <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>40</v>
@@ -2963,14 +2862,16 @@
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="L17" t="s" s="2">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2997,13 +2898,11 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>40</v>
@@ -3020,15 +2919,11 @@
       <c r="AD17" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE17" t="s" s="2">
-        <v>139</v>
-      </c>
+      <c r="AE17" s="2"/>
       <c r="AF17" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG17" s="2"/>
       <c r="AH17" t="s" s="2">
         <v>40</v>
       </c>
@@ -3036,7 +2931,7 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>40</v>
@@ -3045,45 +2940,43 @@
         <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>40</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="I18" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3108,13 +3001,13 @@
         <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>40</v>
@@ -3132,7 +3025,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3147,7 +3040,7 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>40</v>
@@ -3156,12 +3049,12 @@
         <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3181,16 +3074,16 @@
         <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3252,21 +3145,21 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3274,7 +3167,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>50</v>
@@ -3283,22 +3176,22 @@
         <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3324,13 +3217,13 @@
         <v>40</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>40</v>
@@ -3359,21 +3252,21 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3393,16 +3286,16 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3429,11 +3322,13 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="X21" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y21" t="s" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>40</v>
@@ -3462,21 +3357,21 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>40</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3496,16 +3391,16 @@
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3532,11 +3427,13 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
@@ -3565,13 +3462,13 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
@@ -3579,7 +3476,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3590,7 +3487,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>40</v>
@@ -3602,13 +3499,13 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3635,11 +3532,13 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X23" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y23" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
@@ -3668,21 +3567,21 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>40</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3705,13 +3604,13 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3738,11 +3637,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="X24" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y24" t="s" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3771,21 +3672,21 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>40</v>
+        <v>196</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3805,16 +3706,16 @@
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3841,13 +3742,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -3864,15 +3765,11 @@
       <c r="AD25" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE25" t="s" s="2">
-        <v>188</v>
-      </c>
+      <c r="AE25" s="2"/>
       <c r="AF25" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG25" s="2"/>
       <c r="AH25" t="s" s="2">
         <v>40</v>
       </c>
@@ -3880,7 +3777,7 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>40</v>
@@ -3889,12 +3786,12 @@
         <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>194</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3917,13 +3814,13 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3985,7 +3882,7 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>40</v>
@@ -3999,7 +3896,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4022,16 +3919,16 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4092,21 +3989,21 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>207</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4129,15 +4026,17 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4197,21 +4096,21 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>213</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4234,13 +4133,13 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4302,13 +4201,13 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4316,7 +4215,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4324,10 +4223,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
@@ -4336,16 +4235,16 @@
         <v>40</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4404,24 +4303,24 @@
         <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4441,16 +4340,16 @@
         <v>40</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4500,11 +4399,15 @@
       <c r="AD31" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE31" s="2"/>
+      <c r="AE31" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG31" s="2"/>
+      <c r="AG31" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH31" t="s" s="2">
         <v>40</v>
       </c>
@@ -4512,32 +4415,32 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>231</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
@@ -4549,15 +4452,17 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>233</v>
+        <v>96</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>234</v>
+        <v>97</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4605,11 +4510,15 @@
       <c r="AD32" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE32" s="2"/>
+      <c r="AE32" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG32" s="2"/>
+      <c r="AG32" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4617,7 +4526,7 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>40</v>
@@ -4631,11 +4540,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4648,21 +4557,23 @@
         <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>238</v>
+        <v>96</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>239</v>
+        <v>107</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4710,11 +4621,15 @@
       <c r="AD33" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE33" s="2"/>
+      <c r="AE33" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG33" s="2"/>
+      <c r="AG33" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4722,7 +4637,7 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>40</v>
@@ -4736,7 +4651,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4744,10 +4659,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -4756,19 +4671,19 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4794,13 +4709,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -4817,11 +4732,15 @@
       <c r="AD34" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE34" s="2"/>
+      <c r="AE34" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG34" s="2"/>
+      <c r="AG34" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
       </c>
@@ -4829,21 +4748,21 @@
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>40</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4863,20 +4782,18 @@
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -4936,21 +4853,21 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>213</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4961,7 +4878,7 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -4970,16 +4887,16 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>255</v>
+        <v>69</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5006,13 +4923,13 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -5041,10 +4958,10 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
@@ -5055,7 +4972,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5066,7 +4983,7 @@
         <v>50</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5078,13 +4995,13 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>260</v>
+        <v>69</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5111,13 +5028,13 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>40</v>
+        <v>271</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
@@ -5143,24 +5060,24 @@
         <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5171,7 +5088,7 @@
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>40</v>
@@ -5183,15 +5100,17 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>63</v>
+        <v>277</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>64</v>
+        <v>278</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5239,15 +5158,11 @@
       <c r="AD38" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE38" t="s" s="2">
-        <v>66</v>
-      </c>
+      <c r="AE38" s="2"/>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG38" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG38" s="2"/>
       <c r="AH38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5255,7 +5170,7 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>67</v>
+        <v>281</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>40</v>
@@ -5264,766 +5179,11 @@
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
-      <c r="A41" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="42" hidden="true">
-      <c r="A42" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J42" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE42" s="2"/>
-      <c r="AF42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG42" s="2"/>
-      <c r="AH42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE43" s="2"/>
-      <c r="AF43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG43" s="2"/>
-      <c r="AH43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE44" s="2"/>
-      <c r="AF44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG44" s="2"/>
-      <c r="AH44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE45" s="2"/>
-      <c r="AF45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG45" s="2"/>
-      <c r="AH45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM45">
+  <autoFilter ref="A1:AM38">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6033,7 +5193,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI44">
+  <conditionalFormatting sqref="A2:AI37">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/odh/shr-core-Appointment.xlsx
+++ b/docs/odh/shr-core-Appointment.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$47</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="317">
   <si>
     <t>Path</t>
   </si>
@@ -206,13 +206,162 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Appointment.implicitRules</t>
+    <t>Appointment.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Appointment.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SourceSystem-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>Appointment.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Appointment.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>Appointment.meta.profile</t>
   </si>
   <si>
     <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Appointment.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Appointment.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Appointment.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -242,9 +391,6 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A human language.</t>
   </si>
   <si>
@@ -313,41 +459,30 @@
     <t>Appointment.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>appointmentreasonreference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-AppointmentReasonReference-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>Reason the appointment is to take place (resource)</t>
+  </si>
+  <si>
+    <t>patientinstruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-PatientInstruction-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>reasonreference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The justification, as reference to a condition or observation.</t>
+    <t>Patient or consumer-oriented instructions.</t>
   </si>
   <si>
     <t>Appointment.modifierExtension</t>
@@ -431,9 +566,6 @@
     <t>A broad categorisation of the service that is to be performed during this appointment.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/service-category</t>
   </si>
   <si>
@@ -515,7 +647,7 @@
     <t>Appointment.indication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Procedure]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Condition], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Procedure]]}
 </t>
   </si>
   <si>
@@ -558,32 +690,28 @@
     <t>Appointment.description</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t>Shown on a subject line in a meeting request, or appointment list</t>
+  </si>
+  <si>
+    <t>The brief description of the appointment as would be shown on a subject line in a meeting request, or appointment list. Detailed or expanded information should be put in the comment field.</t>
+  </si>
+  <si>
+    <t>.text</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>NTE-3</t>
+  </si>
+  <si>
+    <t>Appointment.supportingInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DomainResource]]}
 </t>
   </si>
   <si>
-    <t>Shown on a subject line in a meeting request, or appointment list</t>
-  </si>
-  <si>
-    <t>The brief description of the appointment as would be shown on a subject line in a meeting request, or appointment list. Detailed or expanded information should be put in the comment field.</t>
-  </si>
-  <si>
-    <t>.text</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>NTE-3</t>
-  </si>
-  <si>
-    <t>Appointment.supportingInformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DomainResource]]}
-</t>
-  </si>
-  <si>
     <t>Additional information to support the appointment</t>
   </si>
   <si>
@@ -597,10 +725,6 @@
   </si>
   <si>
     <t>Appointment.start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
   </si>
   <si>
     <t>When appointment is to take place</t>
@@ -710,7 +834,7 @@
     <t>Appointment.incomingReferral</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ReferralRequest]]}
 </t>
   </si>
   <si>
@@ -752,25 +876,7 @@
     <t>Appointment.participant.id</t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Appointment.participant.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Appointment.participant.modifierExtension</t>
@@ -817,7 +923,7 @@
     <t>Appointment.participant.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Location]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-RelatedPerson], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Device], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Location]]}
 </t>
   </si>
   <si>
@@ -1052,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN38"/>
+  <dimension ref="A1:AM47"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1062,7 +1168,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.1015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.46484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1084,11 +1190,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="49.39453125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="51.2890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1565,10 +1671,10 @@
         <v>40</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>63</v>
@@ -1579,9 +1685,7 @@
       <c r="L5" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="M5" t="s" s="2">
-        <v>66</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>40</v>
@@ -1630,7 +1734,7 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
@@ -1645,7 +1749,7 @@
         <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>40</v>
@@ -1663,14 +1767,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>40</v>
@@ -1682,16 +1786,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1717,37 +1821,37 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AC6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>40</v>
@@ -1756,7 +1860,7 @@
         <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>40</v>
@@ -1770,11 +1874,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1795,15 +1901,11 @@
       <c r="J7" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="K7" s="2"/>
+      <c r="L7" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>82</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>40</v>
@@ -1852,22 +1954,22 @@
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>40</v>
@@ -1881,18 +1983,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>40</v>
@@ -1901,19 +2003,19 @@
         <v>40</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1962,15 +2064,11 @@
       <c r="AD8" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE8" t="s" s="2">
-        <v>92</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" t="s" s="2">
         <v>40</v>
       </c>
@@ -1978,7 +2076,7 @@
         <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>40</v>
@@ -1992,18 +2090,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>40</v>
@@ -2012,19 +2110,19 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2062,24 +2160,22 @@
         <v>40</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" t="s" s="2">
         <v>40</v>
       </c>
@@ -2087,7 +2183,7 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>40</v>
@@ -2101,11 +2197,9 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2123,16 +2217,20 @@
         <v>40</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -2180,15 +2278,11 @@
       <c r="AD10" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>102</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>40</v>
       </c>
@@ -2210,11 +2304,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2227,19 +2321,19 @@
         <v>40</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>99</v>
@@ -2268,13 +2362,13 @@
         <v>40</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>40</v>
@@ -2291,15 +2385,11 @@
       <c r="AD11" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE11" t="s" s="2">
-        <v>109</v>
-      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG11" s="2"/>
       <c r="AH11" t="s" s="2">
         <v>40</v>
       </c>
@@ -2307,7 +2397,7 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>40</v>
@@ -2321,7 +2411,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2344,15 +2434,17 @@
         <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>40</v>
@@ -2377,13 +2469,13 @@
         <v>40</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>40</v>
@@ -2412,21 +2504,21 @@
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>117</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2434,7 +2526,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>50</v>
@@ -2449,16 +2541,16 @@
         <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2484,13 +2576,13 @@
         <v>40</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>40</v>
@@ -2507,11 +2599,15 @@
       <c r="AD13" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE13" s="2"/>
+      <c r="AE13" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG13" s="2"/>
+      <c r="AG13" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH13" t="s" s="2">
         <v>40</v>
       </c>
@@ -2519,21 +2615,21 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2553,18 +2649,20 @@
         <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>119</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -2589,11 +2687,13 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="X14" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="Y14" t="s" s="2">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>40</v>
@@ -2610,11 +2710,15 @@
       <c r="AD14" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE14" s="2"/>
+      <c r="AE14" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG14" s="2"/>
+      <c r="AG14" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH14" t="s" s="2">
         <v>40</v>
       </c>
@@ -2622,7 +2726,7 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>40</v>
@@ -2636,18 +2740,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>40</v>
@@ -2656,18 +2760,20 @@
         <v>40</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -2692,11 +2798,13 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="X15" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y15" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>40</v>
@@ -2713,19 +2821,23 @@
       <c r="AD15" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE15" s="2"/>
+      <c r="AE15" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG15" s="2"/>
+      <c r="AG15" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH15" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>40</v>
@@ -2739,11 +2851,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2759,18 +2871,20 @@
         <v>40</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -2795,11 +2909,13 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="X16" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>40</v>
@@ -2816,11 +2932,15 @@
       <c r="AD16" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE16" s="2"/>
+      <c r="AE16" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG16" s="2"/>
+      <c r="AG16" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH16" t="s" s="2">
         <v>40</v>
       </c>
@@ -2828,13 +2948,13 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -2842,18 +2962,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>40</v>
@@ -2862,18 +2982,20 @@
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -2898,32 +3020,36 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB17" s="2"/>
+      <c r="AC17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="X17" s="2"/>
-      <c r="Y17" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE17" s="2"/>
       <c r="AF17" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG17" s="2"/>
+      <c r="AG17" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH17" t="s" s="2">
         <v>40</v>
       </c>
@@ -2931,7 +3057,7 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>40</v>
@@ -2940,14 +3066,16 @@
         <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>151</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>40</v>
       </c>
@@ -2956,7 +3084,7 @@
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>40</v>
@@ -2965,16 +3093,14 @@
         <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3001,31 +3127,31 @@
         <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3040,7 +3166,7 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>40</v>
@@ -3049,14 +3175,16 @@
         <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>158</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3065,7 +3193,7 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>40</v>
@@ -3077,13 +3205,11 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3133,11 +3259,15 @@
       <c r="AD19" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE19" s="2"/>
+      <c r="AE19" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG19" s="2"/>
+      <c r="AG19" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3145,7 +3275,7 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>40</v>
@@ -3159,39 +3289,39 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3240,11 +3370,15 @@
       <c r="AD20" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE20" s="2"/>
+      <c r="AE20" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG20" s="2"/>
+      <c r="AG20" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3252,21 +3386,21 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>171</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3277,7 +3411,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3286,16 +3420,16 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3357,21 +3491,21 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3379,30 +3513,32 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3427,13 +3563,13 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
@@ -3462,21 +3598,21 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>40</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3499,13 +3635,13 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3532,13 +3668,11 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
@@ -3567,21 +3701,21 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3592,7 +3726,7 @@
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
@@ -3604,13 +3738,13 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3637,13 +3771,11 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3672,21 +3804,21 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>197</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3697,7 +3829,7 @@
         <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
@@ -3706,16 +3838,16 @@
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3742,13 +3874,11 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>40</v>
+        <v>185</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -3777,13 +3907,13 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -3791,7 +3921,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3802,7 +3932,7 @@
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>40</v>
@@ -3811,16 +3941,16 @@
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3847,13 +3977,11 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>40</v>
+        <v>191</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -3882,7 +4010,7 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>40</v>
@@ -3891,12 +4019,12 @@
         <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>40</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3916,20 +4044,18 @@
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -3954,13 +4080,13 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
@@ -3977,11 +4103,15 @@
       <c r="AD27" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE27" s="2"/>
+      <c r="AE27" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG27" s="2"/>
+      <c r="AG27" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
       </c>
@@ -3989,7 +4119,7 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>40</v>
@@ -3998,12 +4128,12 @@
         <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4014,7 +4144,7 @@
         <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>40</v>
@@ -4026,17 +4156,15 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>173</v>
+        <v>202</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4096,21 +4224,21 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>219</v>
+        <v>40</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4121,7 +4249,7 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>40</v>
@@ -4133,15 +4261,17 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4201,21 +4331,21 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>40</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4223,11 +4353,11 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F30" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="G30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4238,13 +4368,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>226</v>
+        <v>63</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4303,24 +4433,24 @@
         <v>40</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4331,7 +4461,7 @@
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
@@ -4343,13 +4473,13 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4399,15 +4529,11 @@
       <c r="AD31" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE31" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="AE31" s="2"/>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG31" s="2"/>
       <c r="AH31" t="s" s="2">
         <v>40</v>
       </c>
@@ -4415,13 +4541,13 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -4429,18 +4555,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
@@ -4449,20 +4575,18 @@
         <v>40</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>97</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4510,15 +4634,11 @@
       <c r="AD32" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE32" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="AE32" s="2"/>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG32" s="2"/>
       <c r="AH32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4526,54 +4646,52 @@
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>40</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>107</v>
+        <v>233</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4621,15 +4739,11 @@
       <c r="AD33" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE33" t="s" s="2">
-        <v>244</v>
-      </c>
+      <c r="AE33" s="2"/>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG33" s="2"/>
       <c r="AH33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4637,21 +4751,21 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>93</v>
+        <v>235</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4659,11 +4773,11 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F34" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F34" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
       </c>
@@ -4671,20 +4785,18 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4709,13 +4821,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>249</v>
+        <v>40</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -4732,15 +4844,11 @@
       <c r="AD34" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AE34" t="s" s="2">
-        <v>245</v>
-      </c>
+      <c r="AE34" s="2"/>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>42</v>
-      </c>
+      <c r="AG34" s="2"/>
       <c r="AH34" t="s" s="2">
         <v>40</v>
       </c>
@@ -4748,21 +4856,21 @@
         <v>40</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>252</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4773,7 +4881,7 @@
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
@@ -4782,16 +4890,16 @@
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4853,21 +4961,21 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>260</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4887,18 +4995,20 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -4923,13 +5033,13 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>264</v>
+        <v>40</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
@@ -4958,10 +5068,10 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>267</v>
+        <v>40</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
@@ -4972,7 +5082,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4980,7 +5090,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>50</v>
@@ -4995,15 +5105,17 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5028,13 +5140,13 @@
         <v>40</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>271</v>
+        <v>40</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>40</v>
@@ -5063,21 +5175,21 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>275</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5100,17 +5212,15 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5170,20 +5280,989 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE39" s="2"/>
+      <c r="AF39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG39" s="2"/>
+      <c r="AH39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM38" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>282</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE44" s="2"/>
+      <c r="AF44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG44" s="2"/>
+      <c r="AH44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE45" s="2"/>
+      <c r="AF45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG45" s="2"/>
+      <c r="AH45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE46" s="2"/>
+      <c r="AF46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG46" s="2"/>
+      <c r="AH46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE47" s="2"/>
+      <c r="AF47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG47" s="2"/>
+      <c r="AH47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM38">
+  <autoFilter ref="A1:AM47">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5193,7 +6272,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI37">
+  <conditionalFormatting sqref="A2:AI46">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
